--- a/target/test-classes/testdata/Details.xlsx
+++ b/target/test-classes/testdata/Details.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f520f746c6cf7f/Documents/Webbbased/src/test/java/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC1048EE395A7D2A5BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15FF3238-F5BC-48D0-B3C0-6314D7BA4CE7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC1048EE395A7D2A5BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB7F6A5-4382-4667-9E7E-BDFA26C2E6D6}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="1770" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4990" yWindow="1990" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -98,6 +99,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,7 +371,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,4 +411,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDED051-D0E5-4598-BF8F-FF80E6187B62}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>